--- a/tests/testthat/_snaps/knitxl/hyperlinks.xlsx
+++ b/tests/testthat/_snaps/knitxl/hyperlinks.xlsx
@@ -23,8 +23,6 @@
         <sz val="12"/>
         <color rgb="FF2A61BB"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">hyperlink</t>
     </r>
@@ -39,8 +37,6 @@
         <sz val="12"/>
         <color rgb="FF2A61BB"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">hyperlink</t>
     </r>
@@ -53,8 +49,6 @@
         <sz val="12"/>
         <color rgb="FF2A61BB"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">hyperlink</t>
     </r>
@@ -66,8 +60,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">A bold string with an </t>
     </r>
@@ -78,8 +70,6 @@
         <sz val="12"/>
         <color rgb="FF2A61BB"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">hyperlink</t>
     </r>
@@ -94,8 +84,6 @@
         <sz val="12"/>
         <color rgb="FF2A61BB"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">hyperlink</t>
     </r>

--- a/tests/testthat/_snaps/knitxl/hyperlinks.xlsx
+++ b/tests/testthat/_snaps/knitxl/hyperlinks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
       <t xml:space="preserve">A string with an </t>
@@ -76,7 +76,36 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">• A list with an </t>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <t xml:space="preserve">A list with an </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF2A61BB"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">hyperlink</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">normal text </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">bold text</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -451,12 +480,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1h"/>
     <hyperlink ref="A2" r:id="rId2h"/>
     <hyperlink ref="A3" r:id="rId3h"/>
     <hyperlink ref="A4" r:id="rId4h"/>
+    <hyperlink ref="A5" r:id="rId5h"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
